--- a/e7migongdate.xlsx
+++ b/e7migongdate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3778900-A562-45A0-8507-677BA334103D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FBDDAE-71C6-4FB7-8F03-B07A5E27A719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1764" windowWidth="25752" windowHeight="14628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="32190" windowHeight="18285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
   <si>
     <t>Chat1</t>
   </si>
@@ -559,13 +559,16 @@
   <si>
     <t>Hero</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luluca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +610,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -637,10 +645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,11 +694,221 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{0DC654E5-6ED1-43B2-B836-8ABF45C91502}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -914,184 +1133,56 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="11" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="calculator-style" pivot="0" count="2" xr9:uid="{5808F4C9-F443-4FD0-84A2-25960BD8D549}">
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+    </tableStyle>
+    <tableStyle name="sheet1-style" pivot="0" count="2" xr9:uid="{3C2BC75D-8EDB-4CAD-9775-DBCE13BFBECC}">
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+    </tableStyle>
+    <tableStyle name="sheet1-style 2" pivot="0" count="3" xr9:uid="{2B86A246-C261-41BF-8552-6681AB3997FD}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="sheet1-style 3" pivot="0" count="3" xr9:uid="{A29A1051-B73F-4038-9F86-AB5D41930345}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="sheet1-style 4" pivot="0" count="2" xr9:uid="{FDE309EA-5970-4616-9ADA-7190CB1C97F1}">
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+    </tableStyle>
+    <tableStyle name="sheet1-style 5" pivot="0" count="3" xr9:uid="{C8C57D9A-646D-44D9-A97B-E1DE7811B9D1}">
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="skillData-style" pivot="0" count="2" xr9:uid="{20CFC3B4-E721-4510-8E52-4F2457DFEE9A}">
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+    </tableStyle>
+    <tableStyle name="skillData-style 2" pivot="0" count="2" xr9:uid="{E05CF9BA-380D-4000-9E6E-23EBD186BBF4}">
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="skillData-style 3" pivot="0" count="2" xr9:uid="{6A3EEE54-0EA3-4A40-8915-BE94FCF5A598}">
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+    </tableStyle>
+    <tableStyle name="skillData-style 4" pivot="0" count="2" xr9:uid="{2FCBFA1D-AC9B-4629-AC9E-39AC85F1F895}">
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="DontTouchThis-style" pivot="0" count="2" xr9:uid="{8CE63460-6BAE-4EC1-8BFF-4E36A4CC60B9}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1366,19 +1457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z135"/>
+  <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="P141" sqref="P141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4">
+    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1406,7 +1497,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="13" customFormat="1">
+    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1661,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="13" customFormat="1">
+    <row r="4" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1743,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1825,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="13" customFormat="1">
+    <row r="6" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1815,7 +1906,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1">
+    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1896,7 +1987,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="13" customFormat="1">
+    <row r="8" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2068,7 @@
         <v>2.7727272727272729</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2149,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="13" customFormat="1">
+    <row r="10" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2139,7 +2230,7 @@
         <v>2.5909090909090908</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1">
+    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -2221,7 +2312,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -2384,7 +2475,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2465,7 +2556,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="15" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2637,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="13" customFormat="1">
+    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2718,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="17" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2714,7 +2805,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="13" customFormat="1">
+    <row r="18" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -2795,7 +2886,7 @@
         <v>1.6818181818181819</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="19" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2878,7 +2969,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="20" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +3050,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="13" customFormat="1">
+    <row r="21" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3131,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="13" customFormat="1">
+    <row r="22" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3212,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -3202,7 +3293,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>2</v>
       </c>
@@ -3283,7 +3374,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="25" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
@@ -3364,7 +3455,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="26" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
@@ -3447,7 +3538,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="13" customFormat="1">
+    <row r="27" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3619,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="13" customFormat="1">
+    <row r="28" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
@@ -3609,7 +3700,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="13" customFormat="1">
+    <row r="29" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
@@ -3690,7 +3781,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="13" customFormat="1">
+    <row r="30" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
@@ -3771,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="31" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3943,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="13" customFormat="1">
+    <row r="32" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>13</v>
       </c>
@@ -3933,7 +4024,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="33" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>14</v>
       </c>
@@ -4014,7 +4105,7 @@
         <v>2.5909090909090908</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="13" customFormat="1">
+    <row r="34" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4186,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="35" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
@@ -4184,7 +4275,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="13" customFormat="1">
+    <row r="36" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4363,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="37" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>20</v>
       </c>
@@ -4353,7 +4444,7 @@
         <v>2.0909090909090908</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="13" customFormat="1">
+    <row r="38" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
@@ -4434,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="13" customFormat="1">
+    <row r="39" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>14</v>
       </c>
@@ -4515,7 +4606,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="13" customFormat="1">
+    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
@@ -4596,7 +4687,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="13" customFormat="1">
+    <row r="41" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>14</v>
       </c>
@@ -4677,7 +4768,7 @@
         <v>2.4090909090909092</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="42" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>22</v>
       </c>
@@ -4758,7 +4849,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="43" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>8</v>
       </c>
@@ -4839,7 +4930,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="13" customFormat="1">
+    <row r="44" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>20</v>
       </c>
@@ -4920,7 +5011,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="45" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>7</v>
       </c>
@@ -5001,7 +5092,7 @@
         <v>0.31818181818181818</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="13" customFormat="1">
+    <row r="46" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>21</v>
       </c>
@@ -5082,7 +5173,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="47" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>20</v>
       </c>
@@ -5163,7 +5254,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="48" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5335,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="13" customFormat="1">
+    <row r="49" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>2</v>
       </c>
@@ -5325,7 +5416,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="13" customFormat="1">
+    <row r="50" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>20</v>
       </c>
@@ -5406,7 +5497,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="13" customFormat="1">
+    <row r="51" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>20</v>
       </c>
@@ -5487,7 +5578,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="13" customFormat="1">
+    <row r="52" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>20</v>
       </c>
@@ -5570,7 +5661,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="13" customFormat="1">
+    <row r="53" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>22</v>
       </c>
@@ -5651,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="54" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>17</v>
       </c>
@@ -5732,7 +5823,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="55" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>14</v>
       </c>
@@ -5813,7 +5904,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="13" customFormat="1">
+    <row r="56" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
@@ -5894,7 +5985,7 @@
         <v>1.6818181818181819</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="57" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>11</v>
       </c>
@@ -5975,7 +6066,7 @@
         <v>2.8636363636363638</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="13" customFormat="1">
+    <row r="58" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>14</v>
       </c>
@@ -6056,7 +6147,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="13" customFormat="1">
+    <row r="59" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>20</v>
       </c>
@@ -6137,7 +6228,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="13" customFormat="1">
+    <row r="60" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>14</v>
       </c>
@@ -6219,7 +6310,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="13" customFormat="1">
+    <row r="61" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>3</v>
       </c>
@@ -6301,7 +6392,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="13" customFormat="1">
+    <row r="62" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>2</v>
       </c>
@@ -6382,7 +6473,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="13" customFormat="1">
+    <row r="63" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>21</v>
       </c>
@@ -6463,7 +6554,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="13" customFormat="1">
+    <row r="64" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>7</v>
       </c>
@@ -6544,7 +6635,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="13" customFormat="1">
+    <row r="65" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>18</v>
       </c>
@@ -6625,7 +6716,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="13" customFormat="1">
+    <row r="66" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>21</v>
       </c>
@@ -6706,7 +6797,7 @@
         <v>0.59090909090909094</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="13" customFormat="1">
+    <row r="67" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
@@ -6788,7 +6879,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="13" customFormat="1">
+    <row r="68" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>8</v>
       </c>
@@ -6869,7 +6960,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="13" customFormat="1">
+    <row r="69" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>7</v>
       </c>
@@ -6950,7 +7041,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="13" customFormat="1">
+    <row r="70" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>9</v>
       </c>
@@ -7031,7 +7122,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="13" customFormat="1">
+    <row r="71" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -7115,7 +7206,7 @@
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="13" customFormat="1">
+    <row r="72" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>21</v>
       </c>
@@ -7196,7 +7287,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="73" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
@@ -7277,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="13" customFormat="1">
+    <row r="74" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>23</v>
       </c>
@@ -7358,7 +7449,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="13" customFormat="1">
+    <row r="75" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>7</v>
       </c>
@@ -7440,7 +7531,7 @@
         <v>2.7727272727272729</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="13" customFormat="1">
+    <row r="76" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>9</v>
       </c>
@@ -7522,7 +7613,7 @@
         <v>2.0909090909090908</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="13" customFormat="1">
+    <row r="77" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>17</v>
       </c>
@@ -7603,7 +7694,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="13" customFormat="1">
+    <row r="78" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
@@ -7685,7 +7776,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="13" customFormat="1">
+    <row r="79" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>5</v>
       </c>
@@ -7767,7 +7858,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="13" customFormat="1">
+    <row r="80" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>10</v>
       </c>
@@ -7849,7 +7940,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="13" customFormat="1" ht="14.4">
+    <row r="81" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>7</v>
       </c>
@@ -7930,7 +8021,7 @@
         <v>0.40909090909090912</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="13" customFormat="1">
+    <row r="82" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>5</v>
       </c>
@@ -8011,7 +8102,7 @@
         <v>2.1818181818181817</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="83" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>14</v>
       </c>
@@ -8092,7 +8183,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="84" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>20</v>
       </c>
@@ -8173,7 +8264,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="13" customFormat="1">
+    <row r="85" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>17</v>
       </c>
@@ -8254,7 +8345,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="13" customFormat="1">
+    <row r="86" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>20</v>
       </c>
@@ -8335,7 +8426,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="13" customFormat="1">
+    <row r="87" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>11</v>
       </c>
@@ -8416,7 +8507,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="13" customFormat="1">
+    <row r="88" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>2</v>
       </c>
@@ -8498,7 +8589,7 @@
         <v>2.0454545454545454</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="89" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>5</v>
       </c>
@@ -8579,7 +8670,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="13" customFormat="1">
+    <row r="90" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8751,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="13" customFormat="1">
+    <row r="91" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>5</v>
       </c>
@@ -8742,7 +8833,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="13" customFormat="1">
+    <row r="92" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>21</v>
       </c>
@@ -8823,7 +8914,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="93" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>8</v>
       </c>
@@ -8905,7 +8996,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="13" customFormat="1">
+    <row r="94" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>21</v>
       </c>
@@ -8987,7 +9078,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="13" customFormat="1">
+    <row r="95" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
@@ -9065,7 +9156,7 @@
       </c>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" spans="1:26" s="13" customFormat="1">
+    <row r="96" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>21</v>
       </c>
@@ -9143,7 +9234,7 @@
       </c>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" s="13" customFormat="1">
+    <row r="97" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>22</v>
       </c>
@@ -9221,7 +9312,7 @@
       </c>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="98" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>2</v>
       </c>
@@ -9300,7 +9391,7 @@
       </c>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="99" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>2</v>
       </c>
@@ -9378,7 +9469,7 @@
       </c>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" spans="1:26" s="13" customFormat="1">
+    <row r="100" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>20</v>
       </c>
@@ -9459,7 +9550,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="13" customFormat="1">
+    <row r="101" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>21</v>
       </c>
@@ -9540,7 +9631,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="13" customFormat="1">
+    <row r="102" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>20</v>
       </c>
@@ -9621,7 +9712,7 @@
         <v>1.9545454545454546</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="13" customFormat="1">
+    <row r="103" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>6</v>
       </c>
@@ -9702,7 +9793,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="13" customFormat="1">
+    <row r="104" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>21</v>
       </c>
@@ -9783,7 +9874,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="13" customFormat="1">
+    <row r="105" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>22</v>
       </c>
@@ -9864,7 +9955,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="106" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>5</v>
       </c>
@@ -9945,7 +10036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="107" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="5" t="s">
@@ -9978,7 +10069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="13" customFormat="1">
+    <row r="108" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>6</v>
       </c>
@@ -10059,7 +10150,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="13" customFormat="1">
+    <row r="109" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>12</v>
       </c>
@@ -10140,7 +10231,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="13" customFormat="1">
+    <row r="110" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>21</v>
       </c>
@@ -10221,7 +10312,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="111" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>9</v>
       </c>
@@ -10302,7 +10393,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="112" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>23</v>
       </c>
@@ -10383,7 +10474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="13" customFormat="1">
+    <row r="113" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
@@ -10464,7 +10555,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="13" customFormat="1">
+    <row r="114" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>10</v>
       </c>
@@ -10546,7 +10637,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="115" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>16</v>
       </c>
@@ -10627,7 +10718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="13" customFormat="1">
+    <row r="116" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>20</v>
       </c>
@@ -10708,7 +10799,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="117" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>3</v>
       </c>
@@ -10789,7 +10880,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="118" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>17</v>
       </c>
@@ -10870,7 +10961,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="13" customFormat="1">
+    <row r="119" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
@@ -10952,7 +11043,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="13" customFormat="1">
+    <row r="120" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>9</v>
       </c>
@@ -11034,7 +11125,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="13" customFormat="1">
+    <row r="121" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>6</v>
       </c>
@@ -11115,7 +11206,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="122" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>13</v>
       </c>
@@ -11196,7 +11287,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="123" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>3</v>
       </c>
@@ -11277,7 +11368,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="13" customFormat="1">
+    <row r="124" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>9</v>
       </c>
@@ -11358,7 +11449,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="13" customFormat="1">
+    <row r="125" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>12</v>
       </c>
@@ -11440,7 +11531,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="13" customFormat="1">
+    <row r="126" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>2</v>
       </c>
@@ -11522,7 +11613,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="13" customFormat="1">
+    <row r="127" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>3</v>
       </c>
@@ -11603,7 +11694,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="13" customFormat="1">
+    <row r="128" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>14</v>
       </c>
@@ -11684,7 +11775,7 @@
         <v>2.6818181818181817</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="13" customFormat="1">
+    <row r="129" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>23</v>
       </c>
@@ -11765,7 +11856,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="130" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>22</v>
       </c>
@@ -11847,7 +11938,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="13" customFormat="1" ht="23.4">
+    <row r="131" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>23</v>
       </c>
@@ -11929,7 +12020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="13" customFormat="1">
+    <row r="132" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>8</v>
       </c>
@@ -12010,7 +12101,7 @@
         <v>2.9545454545454546</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="13" customFormat="1">
+    <row r="133" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>4</v>
       </c>
@@ -12098,7 +12189,7 @@
         <v>2.3636363636363638</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="13" customFormat="1">
+    <row r="134" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>22</v>
       </c>
@@ -12179,7 +12270,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="13" customFormat="1">
+    <row r="135" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>22</v>
       </c>
@@ -12263,130 +12354,210 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
+    <row r="136" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" s="16">
+        <v>4</v>
+      </c>
+      <c r="E136" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F136" s="16">
+        <v>-3</v>
+      </c>
+      <c r="G136" s="16">
+        <v>6</v>
+      </c>
+      <c r="H136" s="16">
+        <v>-3</v>
+      </c>
+      <c r="I136" s="16">
+        <v>3</v>
+      </c>
+      <c r="J136" s="16">
+        <v>7</v>
+      </c>
+      <c r="K136" s="16">
+        <v>2</v>
+      </c>
+      <c r="L136" s="16">
+        <v>3</v>
+      </c>
+      <c r="M136" s="16">
+        <v>0</v>
+      </c>
+      <c r="N136" s="16">
+        <v>4</v>
+      </c>
+      <c r="O136" s="16">
+        <v>-3</v>
+      </c>
+      <c r="P136" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q136" s="16">
+        <v>-4</v>
+      </c>
+      <c r="R136" s="16">
+        <v>0</v>
+      </c>
+      <c r="S136" s="16">
+        <v>2</v>
+      </c>
+      <c r="T136" s="16">
+        <v>5</v>
+      </c>
+      <c r="U136" s="16">
+        <v>3</v>
+      </c>
+      <c r="V136" s="16">
+        <v>-3</v>
+      </c>
+      <c r="W136" s="16">
+        <v>3</v>
+      </c>
+      <c r="X136" s="16">
+        <v>-6</v>
+      </c>
+      <c r="Y136" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="17">
+        <v>1.0454545449999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="23" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>LEFT(#REF!,LEN(#REF!)-1)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>LEFT(#REF!,LEN(#REF!)-1)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>LEFT($C:$C,LEN($C:$C)-1)=$2:$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>LEFT($C:$C,LEN($C:$C)-1)=$2:$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/e7migongdate.xlsx
+++ b/e7migongdate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FBDDAE-71C6-4FB7-8F03-B07A5E27A719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB249A-6B09-4A2D-BC87-900C8332E3A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="32190" windowHeight="18285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="1764" windowWidth="25752" windowHeight="14628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
   <si>
     <t>Chat1</t>
   </si>
@@ -562,13 +562,25 @@
   </si>
   <si>
     <t>Luluca</t>
+  </si>
+  <si>
+    <t>Khawazu</t>
+  </si>
+  <si>
+    <t>Lilibet</t>
+  </si>
+  <si>
+    <t>FallenCecilia</t>
+  </si>
+  <si>
+    <t>AngelicMontmorancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +627,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +653,38 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C7C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -644,12 +692,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,212 +766,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{0DC654E5-6ED1-43B2-B836-8ABF45C91502}"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDBDBD"/>
-          <bgColor rgb="FFBDBDBD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDBDBD"/>
-          <bgColor rgb="FFBDBDBD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDBDBD"/>
-          <bgColor rgb="FFBDBDBD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1133,54 +1017,254 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="11" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="calculator-style" pivot="0" count="2" xr9:uid="{5808F4C9-F443-4FD0-84A2-25960BD8D549}">
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="sheet1-style" pivot="0" count="2" xr9:uid="{3C2BC75D-8EDB-4CAD-9775-DBCE13BFBECC}">
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="sheet1-style 2" pivot="0" count="3" xr9:uid="{2B86A246-C261-41BF-8552-6681AB3997FD}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="secondRowStripe" dxfId="43"/>
     </tableStyle>
     <tableStyle name="sheet1-style 3" pivot="0" count="3" xr9:uid="{A29A1051-B73F-4038-9F86-AB5D41930345}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="sheet1-style 4" pivot="0" count="2" xr9:uid="{FDE309EA-5970-4616-9ADA-7190CB1C97F1}">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="sheet1-style 5" pivot="0" count="3" xr9:uid="{C8C57D9A-646D-44D9-A97B-E1DE7811B9D1}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="skillData-style" pivot="0" count="2" xr9:uid="{20CFC3B4-E721-4510-8E52-4F2457DFEE9A}">
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="skillData-style 2" pivot="0" count="2" xr9:uid="{E05CF9BA-380D-4000-9E6E-23EBD186BBF4}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="skillData-style 3" pivot="0" count="2" xr9:uid="{6A3EEE54-0EA3-4A40-8915-BE94FCF5A598}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="skillData-style 4" pivot="0" count="2" xr9:uid="{2FCBFA1D-AC9B-4629-AC9E-39AC85F1F895}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
     <tableStyle name="DontTouchThis-style" pivot="0" count="2" xr9:uid="{8CE63460-6BAE-4EC1-8BFF-4E36A4CC60B9}">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1457,19 +1541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z136"/>
+  <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="P141" sqref="P141"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1497,7 +1581,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="13" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1745,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="13" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1827,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1909,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="13" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1990,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1987,7 +2071,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="13" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2152,7 @@
         <v>2.7727272727272729</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2233,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="13" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2314,7 @@
         <v>2.5909090909090908</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -2312,7 +2396,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
@@ -2475,7 +2559,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2640,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2721,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="13" customFormat="1">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2802,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -2805,7 +2889,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="13" customFormat="1">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2970,7 @@
         <v>1.6818181818181819</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +3053,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3134,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="13" customFormat="1">
       <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
@@ -3131,7 +3215,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="13" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3296,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -3293,7 +3377,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A24" s="14" t="s">
         <v>2</v>
       </c>
@@ -3374,7 +3458,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
@@ -3455,7 +3539,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3622,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="13" customFormat="1">
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3703,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="13" customFormat="1">
       <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
@@ -3700,7 +3784,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="13" customFormat="1">
       <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
@@ -3781,7 +3865,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="13" customFormat="1">
       <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
@@ -3862,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
@@ -3943,7 +4027,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="13" customFormat="1">
       <c r="A32" s="14" t="s">
         <v>13</v>
       </c>
@@ -4024,7 +4108,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A33" s="12" t="s">
         <v>14</v>
       </c>
@@ -4105,7 +4189,7 @@
         <v>2.5909090909090908</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="13" customFormat="1">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
@@ -4186,7 +4270,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
@@ -4275,7 +4359,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="13" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
@@ -4363,7 +4447,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A37" s="12" t="s">
         <v>20</v>
       </c>
@@ -4444,7 +4528,7 @@
         <v>2.0909090909090908</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="13" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
@@ -4525,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="13" customFormat="1">
       <c r="A39" s="12" t="s">
         <v>14</v>
       </c>
@@ -4606,7 +4690,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="13" customFormat="1">
       <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
@@ -4687,7 +4771,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="13" customFormat="1">
       <c r="A41" s="12" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4852,7 @@
         <v>2.4090909090909092</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A42" s="14" t="s">
         <v>22</v>
       </c>
@@ -4849,7 +4933,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A43" s="12" t="s">
         <v>8</v>
       </c>
@@ -4930,7 +5014,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="13" customFormat="1">
       <c r="A44" s="14" t="s">
         <v>20</v>
       </c>
@@ -5011,7 +5095,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A45" s="12" t="s">
         <v>7</v>
       </c>
@@ -5092,7 +5176,7 @@
         <v>0.31818181818181818</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="13" customFormat="1">
       <c r="A46" s="14" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5257,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A47" s="12" t="s">
         <v>20</v>
       </c>
@@ -5254,7 +5338,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -5335,7 +5419,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="13" customFormat="1">
       <c r="A49" s="12" t="s">
         <v>2</v>
       </c>
@@ -5416,7 +5500,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="13" customFormat="1">
       <c r="A50" s="14" t="s">
         <v>20</v>
       </c>
@@ -5497,7 +5581,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="51" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="13" customFormat="1">
       <c r="A51" s="12" t="s">
         <v>20</v>
       </c>
@@ -5578,7 +5662,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="13" customFormat="1">
       <c r="A52" s="14" t="s">
         <v>20</v>
       </c>
@@ -5661,7 +5745,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="13" customFormat="1">
       <c r="A53" s="12" t="s">
         <v>22</v>
       </c>
@@ -5742,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A54" s="14" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5907,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A55" s="12" t="s">
         <v>14</v>
       </c>
@@ -5904,7 +5988,7 @@
         <v>1.4545454545454546</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="13" customFormat="1">
       <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
@@ -5985,7 +6069,7 @@
         <v>1.6818181818181819</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A57" s="12" t="s">
         <v>11</v>
       </c>
@@ -6066,7 +6150,7 @@
         <v>2.8636363636363638</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="13" customFormat="1">
       <c r="A58" s="14" t="s">
         <v>14</v>
       </c>
@@ -6147,7 +6231,7 @@
         <v>1.8636363636363635</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="13" customFormat="1">
       <c r="A59" s="12" t="s">
         <v>20</v>
       </c>
@@ -6228,7 +6312,7 @@
         <v>0.68181818181818177</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="13" customFormat="1">
       <c r="A60" s="14" t="s">
         <v>14</v>
       </c>
@@ -6310,7 +6394,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="13" customFormat="1">
       <c r="A61" s="12" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6476,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="13" customFormat="1">
       <c r="A62" s="14" t="s">
         <v>2</v>
       </c>
@@ -6473,7 +6557,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="13" customFormat="1">
       <c r="A63" s="12" t="s">
         <v>21</v>
       </c>
@@ -6554,7 +6638,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="13" customFormat="1">
       <c r="A64" s="14" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6719,7 @@
         <v>1.4090909090909092</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="13" customFormat="1">
       <c r="A65" s="12" t="s">
         <v>18</v>
       </c>
@@ -6716,7 +6800,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="13" customFormat="1">
       <c r="A66" s="14" t="s">
         <v>21</v>
       </c>
@@ -6797,7 +6881,7 @@
         <v>0.59090909090909094</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="13" customFormat="1">
       <c r="A67" s="12" t="s">
         <v>2</v>
       </c>
@@ -6879,7 +6963,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="13" customFormat="1">
       <c r="A68" s="14" t="s">
         <v>8</v>
       </c>
@@ -6960,7 +7044,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="13" customFormat="1">
       <c r="A69" s="12" t="s">
         <v>7</v>
       </c>
@@ -7041,7 +7125,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="13" customFormat="1">
       <c r="A70" s="14" t="s">
         <v>9</v>
       </c>
@@ -7122,7 +7206,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="71" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="13" customFormat="1">
       <c r="A71" s="12" t="s">
         <v>2</v>
       </c>
@@ -7206,7 +7290,7 @@
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="13" customFormat="1">
       <c r="A72" s="14" t="s">
         <v>21</v>
       </c>
@@ -7287,7 +7371,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
@@ -7368,7 +7452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="13" customFormat="1">
       <c r="A74" s="14" t="s">
         <v>23</v>
       </c>
@@ -7449,7 +7533,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" s="13" customFormat="1">
       <c r="A75" s="12" t="s">
         <v>7</v>
       </c>
@@ -7531,7 +7615,7 @@
         <v>2.7727272727272729</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" s="13" customFormat="1">
       <c r="A76" s="14" t="s">
         <v>9</v>
       </c>
@@ -7613,7 +7697,7 @@
         <v>2.0909090909090908</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="13" customFormat="1">
       <c r="A77" s="12" t="s">
         <v>17</v>
       </c>
@@ -7694,7 +7778,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="13" customFormat="1">
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
@@ -7776,7 +7860,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="13" customFormat="1">
       <c r="A79" s="12" t="s">
         <v>5</v>
       </c>
@@ -7858,7 +7942,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="13" customFormat="1">
       <c r="A80" s="14" t="s">
         <v>10</v>
       </c>
@@ -7940,7 +8024,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" s="13" customFormat="1" ht="14.4">
       <c r="A81" s="12" t="s">
         <v>7</v>
       </c>
@@ -8021,7 +8105,7 @@
         <v>0.40909090909090912</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="13" customFormat="1">
       <c r="A82" s="14" t="s">
         <v>5</v>
       </c>
@@ -8102,7 +8186,7 @@
         <v>2.1818181818181817</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A83" s="12" t="s">
         <v>14</v>
       </c>
@@ -8183,7 +8267,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A84" s="14" t="s">
         <v>20</v>
       </c>
@@ -8264,7 +8348,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="85" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" s="13" customFormat="1">
       <c r="A85" s="12" t="s">
         <v>17</v>
       </c>
@@ -8345,7 +8429,7 @@
         <v>2.2272727272727271</v>
       </c>
     </row>
-    <row r="86" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="13" customFormat="1">
       <c r="A86" s="14" t="s">
         <v>20</v>
       </c>
@@ -8426,7 +8510,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="87" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="13" customFormat="1">
       <c r="A87" s="12" t="s">
         <v>11</v>
       </c>
@@ -8507,7 +8591,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="88" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="13" customFormat="1">
       <c r="A88" s="14" t="s">
         <v>2</v>
       </c>
@@ -8589,7 +8673,7 @@
         <v>2.0454545454545454</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A89" s="12" t="s">
         <v>5</v>
       </c>
@@ -8670,7 +8754,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="13" customFormat="1">
       <c r="A90" s="14" t="s">
         <v>3</v>
       </c>
@@ -8751,7 +8835,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="13" customFormat="1">
       <c r="A91" s="12" t="s">
         <v>5</v>
       </c>
@@ -8833,7 +8917,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="92" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="13" customFormat="1">
       <c r="A92" s="14" t="s">
         <v>21</v>
       </c>
@@ -8914,7 +8998,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="93" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A93" s="12" t="s">
         <v>8</v>
       </c>
@@ -8996,7 +9080,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="13" customFormat="1">
       <c r="A94" s="14" t="s">
         <v>21</v>
       </c>
@@ -9078,7 +9162,7 @@
         <v>1.7727272727272727</v>
       </c>
     </row>
-    <row r="95" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="13" customFormat="1">
       <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
@@ -9156,7 +9240,7 @@
       </c>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="13" customFormat="1">
       <c r="A96" s="14" t="s">
         <v>21</v>
       </c>
@@ -9234,7 +9318,7 @@
       </c>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="13" customFormat="1">
       <c r="A97" s="12" t="s">
         <v>22</v>
       </c>
@@ -9312,7 +9396,7 @@
       </c>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A98" s="14" t="s">
         <v>2</v>
       </c>
@@ -9391,7 +9475,7 @@
       </c>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A99" s="12" t="s">
         <v>2</v>
       </c>
@@ -9469,7 +9553,7 @@
       </c>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="13" customFormat="1">
       <c r="A100" s="14" t="s">
         <v>20</v>
       </c>
@@ -9550,7 +9634,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="13" customFormat="1">
       <c r="A101" s="12" t="s">
         <v>21</v>
       </c>
@@ -9631,7 +9715,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="102" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" s="13" customFormat="1">
       <c r="A102" s="14" t="s">
         <v>20</v>
       </c>
@@ -9712,7 +9796,7 @@
         <v>1.9545454545454546</v>
       </c>
     </row>
-    <row r="103" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" s="13" customFormat="1">
       <c r="A103" s="12" t="s">
         <v>6</v>
       </c>
@@ -9793,7 +9877,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" s="13" customFormat="1">
       <c r="A104" s="14" t="s">
         <v>21</v>
       </c>
@@ -9874,7 +9958,7 @@
         <v>2.4545454545454546</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" s="13" customFormat="1">
       <c r="A105" s="12" t="s">
         <v>22</v>
       </c>
@@ -9955,7 +10039,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A106" s="14" t="s">
         <v>5</v>
       </c>
@@ -10036,7 +10120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="5" t="s">
@@ -10069,7 +10153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" s="13" customFormat="1">
       <c r="A108" s="14" t="s">
         <v>6</v>
       </c>
@@ -10150,7 +10234,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="109" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" s="13" customFormat="1">
       <c r="A109" s="12" t="s">
         <v>12</v>
       </c>
@@ -10231,7 +10315,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" s="13" customFormat="1">
       <c r="A110" s="14" t="s">
         <v>21</v>
       </c>
@@ -10312,7 +10396,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A111" s="12" t="s">
         <v>9</v>
       </c>
@@ -10393,7 +10477,7 @@
         <v>1.0454545454545454</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A112" s="14" t="s">
         <v>23</v>
       </c>
@@ -10474,7 +10558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="13" customFormat="1">
       <c r="A113" s="12" t="s">
         <v>2</v>
       </c>
@@ -10555,7 +10639,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="13" customFormat="1">
       <c r="A114" s="14" t="s">
         <v>10</v>
       </c>
@@ -10637,7 +10721,7 @@
         <v>1.3636363636363635</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A115" s="12" t="s">
         <v>16</v>
       </c>
@@ -10718,7 +10802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" s="13" customFormat="1">
       <c r="A116" s="14" t="s">
         <v>20</v>
       </c>
@@ -10799,7 +10883,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A117" s="12" t="s">
         <v>3</v>
       </c>
@@ -10880,7 +10964,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A118" s="14" t="s">
         <v>17</v>
       </c>
@@ -10961,7 +11045,7 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="13" customFormat="1">
       <c r="A119" s="12" t="s">
         <v>2</v>
       </c>
@@ -11043,7 +11127,7 @@
         <v>1.9090909090909092</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" s="13" customFormat="1">
       <c r="A120" s="14" t="s">
         <v>9</v>
       </c>
@@ -11125,7 +11209,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="13" customFormat="1">
       <c r="A121" s="12" t="s">
         <v>6</v>
       </c>
@@ -11206,7 +11290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A122" s="14" t="s">
         <v>13</v>
       </c>
@@ -11287,7 +11371,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A123" s="12" t="s">
         <v>3</v>
       </c>
@@ -11368,7 +11452,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="13" customFormat="1">
       <c r="A124" s="14" t="s">
         <v>9</v>
       </c>
@@ -11449,7 +11533,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="13" customFormat="1">
       <c r="A125" s="12" t="s">
         <v>12</v>
       </c>
@@ -11531,7 +11615,7 @@
         <v>1.2272727272727273</v>
       </c>
     </row>
-    <row r="126" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" s="13" customFormat="1">
       <c r="A126" s="14" t="s">
         <v>2</v>
       </c>
@@ -11613,7 +11697,7 @@
         <v>1.1818181818181819</v>
       </c>
     </row>
-    <row r="127" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" s="13" customFormat="1">
       <c r="A127" s="12" t="s">
         <v>3</v>
       </c>
@@ -11694,7 +11778,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="128" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="13" customFormat="1">
       <c r="A128" s="14" t="s">
         <v>14</v>
       </c>
@@ -11775,7 +11859,7 @@
         <v>2.6818181818181817</v>
       </c>
     </row>
-    <row r="129" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="13" customFormat="1">
       <c r="A129" s="12" t="s">
         <v>23</v>
       </c>
@@ -11856,7 +11940,7 @@
         <v>1.3181818181818181</v>
       </c>
     </row>
-    <row r="130" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A130" s="14" t="s">
         <v>22</v>
       </c>
@@ -11938,7 +12022,7 @@
         <v>1.6363636363636365</v>
       </c>
     </row>
-    <row r="131" spans="1:26" s="13" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" s="13" customFormat="1" ht="23.4">
       <c r="A131" s="12" t="s">
         <v>23</v>
       </c>
@@ -12020,7 +12104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="13" customFormat="1">
       <c r="A132" s="14" t="s">
         <v>8</v>
       </c>
@@ -12101,7 +12185,7 @@
         <v>2.9545454545454546</v>
       </c>
     </row>
-    <row r="133" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" s="13" customFormat="1">
       <c r="A133" s="12" t="s">
         <v>4</v>
       </c>
@@ -12189,7 +12273,7 @@
         <v>2.3636363636363638</v>
       </c>
     </row>
-    <row r="134" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" s="13" customFormat="1">
       <c r="A134" s="14" t="s">
         <v>22</v>
       </c>
@@ -12270,7 +12354,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="135" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" s="13" customFormat="1">
       <c r="A135" s="12" t="s">
         <v>22</v>
       </c>
@@ -12354,7 +12438,7 @@
         <v>1.7272727272727273</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="15" thickBot="1">
       <c r="A136" s="18" t="s">
         <v>2</v>
       </c>
@@ -12432,132 +12516,452 @@
       </c>
       <c r="Z136" s="17">
         <v>1.0454545449999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" ht="15" thickBot="1">
+      <c r="A137" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D137" s="22">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="21">
+        <v>4</v>
+      </c>
+      <c r="F137" s="23">
+        <v>0</v>
+      </c>
+      <c r="G137" s="22">
+        <v>-2</v>
+      </c>
+      <c r="H137" s="22">
+        <v>-2</v>
+      </c>
+      <c r="I137" s="21">
+        <v>4</v>
+      </c>
+      <c r="J137" s="21">
+        <v>3</v>
+      </c>
+      <c r="K137" s="21">
+        <v>6</v>
+      </c>
+      <c r="L137" s="21">
+        <v>1</v>
+      </c>
+      <c r="M137" s="22">
+        <v>-2</v>
+      </c>
+      <c r="N137" s="21">
+        <v>1</v>
+      </c>
+      <c r="O137" s="21">
+        <v>1</v>
+      </c>
+      <c r="P137" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="21">
+        <v>1</v>
+      </c>
+      <c r="R137" s="21">
+        <v>6</v>
+      </c>
+      <c r="S137" s="21">
+        <v>4</v>
+      </c>
+      <c r="T137" s="21">
+        <v>1</v>
+      </c>
+      <c r="U137" s="21">
+        <v>4</v>
+      </c>
+      <c r="V137" s="22">
+        <v>-4</v>
+      </c>
+      <c r="W137" s="21">
+        <v>4</v>
+      </c>
+      <c r="X137" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y137" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z137" s="21">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="15" thickBot="1">
+      <c r="A138" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" s="21">
+        <v>2</v>
+      </c>
+      <c r="E138" s="21">
+        <v>6</v>
+      </c>
+      <c r="F138" s="22">
+        <v>-2</v>
+      </c>
+      <c r="G138" s="21">
+        <v>5</v>
+      </c>
+      <c r="H138" s="22">
+        <v>-1</v>
+      </c>
+      <c r="I138" s="21">
+        <v>1</v>
+      </c>
+      <c r="J138" s="21">
+        <v>8</v>
+      </c>
+      <c r="K138" s="21">
+        <v>4</v>
+      </c>
+      <c r="L138" s="21">
+        <v>3</v>
+      </c>
+      <c r="M138" s="21">
+        <v>2</v>
+      </c>
+      <c r="N138" s="21">
+        <v>2</v>
+      </c>
+      <c r="O138" s="21">
+        <v>6</v>
+      </c>
+      <c r="P138" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q138" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R138" s="21">
+        <v>3</v>
+      </c>
+      <c r="S138" s="21">
+        <v>4</v>
+      </c>
+      <c r="T138" s="21">
+        <v>3</v>
+      </c>
+      <c r="U138" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V138" s="21">
+        <v>1</v>
+      </c>
+      <c r="W138" s="21">
+        <v>1</v>
+      </c>
+      <c r="X138" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y138" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z138" s="21">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" ht="24.6" thickBot="1">
+      <c r="A139" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="22">
+        <v>-4</v>
+      </c>
+      <c r="E139" s="21">
+        <v>8</v>
+      </c>
+      <c r="F139" s="22">
+        <v>-2</v>
+      </c>
+      <c r="G139" s="22">
+        <v>-5</v>
+      </c>
+      <c r="H139" s="22">
+        <v>-5</v>
+      </c>
+      <c r="I139" s="21">
+        <v>6</v>
+      </c>
+      <c r="J139" s="21">
+        <v>3</v>
+      </c>
+      <c r="K139" s="21">
+        <v>5</v>
+      </c>
+      <c r="L139" s="21">
+        <v>2</v>
+      </c>
+      <c r="M139" s="22">
+        <v>-3</v>
+      </c>
+      <c r="N139" s="21">
+        <v>1</v>
+      </c>
+      <c r="O139" s="21">
+        <v>3</v>
+      </c>
+      <c r="P139" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q139" s="23">
+        <v>0</v>
+      </c>
+      <c r="R139" s="21">
+        <v>2</v>
+      </c>
+      <c r="S139" s="21">
+        <v>4</v>
+      </c>
+      <c r="T139" s="21">
+        <v>4</v>
+      </c>
+      <c r="U139" s="21">
+        <v>5</v>
+      </c>
+      <c r="V139" s="22">
+        <v>-3</v>
+      </c>
+      <c r="W139" s="21">
+        <v>2</v>
+      </c>
+      <c r="X139" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y139" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z139" s="21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" ht="24.6" thickBot="1">
+      <c r="A140" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="21">
+        <v>3</v>
+      </c>
+      <c r="E140" s="21">
+        <v>3</v>
+      </c>
+      <c r="F140" s="22">
+        <v>-3</v>
+      </c>
+      <c r="G140" s="21">
+        <v>5</v>
+      </c>
+      <c r="H140" s="21">
+        <v>3</v>
+      </c>
+      <c r="I140" s="22">
+        <v>-5</v>
+      </c>
+      <c r="J140" s="21">
+        <v>2</v>
+      </c>
+      <c r="K140" s="21">
+        <v>4</v>
+      </c>
+      <c r="L140" s="21">
+        <v>5</v>
+      </c>
+      <c r="M140" s="23">
+        <v>0</v>
+      </c>
+      <c r="N140" s="21">
+        <v>4</v>
+      </c>
+      <c r="O140" s="21">
+        <v>4</v>
+      </c>
+      <c r="P140" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q140" s="22">
+        <v>-5</v>
+      </c>
+      <c r="R140" s="21">
+        <v>1</v>
+      </c>
+      <c r="S140" s="21">
+        <v>4</v>
+      </c>
+      <c r="T140" s="21">
+        <v>5</v>
+      </c>
+      <c r="U140" s="22">
+        <v>-4</v>
+      </c>
+      <c r="V140" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W140" s="21">
+        <v>6</v>
+      </c>
+      <c r="X140" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y140" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z140" s="21">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z2">
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>LEFT(#REF!,LEN(#REF!)-1)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>LEFT(#REF!,LEN(#REF!)-1)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:Z124">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="33" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>LEFT($C:$C,LEN($C:$C)-1)=$2:$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>LEFT($C:$C,LEN($C:$C)-1)=$2:$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:Z135">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
